--- a/src/TestCase.xlsx
+++ b/src/TestCase.xlsx
@@ -16,22 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>testCase_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>locator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>result</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -126,6 +111,38 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords_option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ithooks.android.ccbxreap:id/view_skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ithooks.android.ccbxreap:id/btn_skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ithooks.android.ccbxreap:id/tv_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>element_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords_value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -612,105 +629,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1">
+    <row r="1" spans="1:8" ht="14.25" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"clickButton,setText,hideKeyboard,sleep"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"id,name,xpath"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
